--- a/addb.xlsx
+++ b/addb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/WINN/botnoi/botnoi2020/linesiit/botnoiengine/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COM-GAMING\Desktop\wsupajirakit\linedynamicflex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA9D0B4-0696-F34A-BA4F-65787C27F82D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7CF26E-4E2F-4C39-8D72-4F2C9D583FF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="5380" windowWidth="28040" windowHeight="16760" xr2:uid="{7BAF2B9B-D2D2-784C-BC1B-1191F2E00F88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{7BAF2B9B-D2D2-784C-BC1B-1191F2E00F88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>ProductName</t>
   </si>
@@ -85,13 +85,22 @@
   </si>
   <si>
     <t>โทรสั่ง  0123456789</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>xvideo</t>
+  </si>
+  <si>
+    <t>https://img-hw.xvideos-cdn.com/videos/thumbs169lll/1c/66/e1/1c66e1f0cfa69e0a380c294470e140ab/1c66e1f0cfa69e0a380c294470e140ab.4.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -466,19 +475,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8479B86-B1E0-F94D-9D76-E7CCECF6772A}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="58.6640625" customWidth="1"/>
+    <col min="2" max="2" width="58.625" customWidth="1"/>
     <col min="3" max="3" width="75" customWidth="1"/>
-    <col min="4" max="4" width="47.1640625" customWidth="1"/>
+    <col min="4" max="4" width="47.125" customWidth="1"/>
     <col min="5" max="5" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -495,7 +504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="18.75">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -512,7 +521,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="25.5">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -529,7 +538,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -546,7 +555,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="D9" s="4"/>
     </row>
   </sheetData>

--- a/addb.xlsx
+++ b/addb.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COM-GAMING\Desktop\wsupajirakit\linedynamicflex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7CF26E-4E2F-4C39-8D72-4F2C9D583FF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96977E1-91A3-4DAE-A2DF-ADF9E9DAB8C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{7BAF2B9B-D2D2-784C-BC1B-1191F2E00F88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="158">
   <si>
     <t>ProductName</t>
   </si>
@@ -94,6 +94,411 @@
   </si>
   <si>
     <t>https://img-hw.xvideos-cdn.com/videos/thumbs169lll/1c/66/e1/1c66e1f0cfa69e0a380c294470e140ab/1c66e1f0cfa69e0a380c294470e140ab.4.jpg</t>
+  </si>
+  <si>
+    <t>lesbian</t>
+  </si>
+  <si>
+    <t>sexy</t>
+  </si>
+  <si>
+    <t>masturbation;;58796727;sexy</t>
+  </si>
+  <si>
+    <t>porno</t>
+  </si>
+  <si>
+    <t>clarence</t>
+  </si>
+  <si>
+    <t>wet</t>
+  </si>
+  <si>
+    <t>big-tits;;58797411;teen</t>
+  </si>
+  <si>
+    <t>teen</t>
+  </si>
+  <si>
+    <t>wife;;58797335;Unknown</t>
+  </si>
+  <si>
+    <t>cogiendo</t>
+  </si>
+  <si>
+    <t>whore</t>
+  </si>
+  <si>
+    <t>morocha</t>
+  </si>
+  <si>
+    <t>baile</t>
+  </si>
+  <si>
+    <t>hardcore</t>
+  </si>
+  <si>
+    <t>booty</t>
+  </si>
+  <si>
+    <t>sucking</t>
+  </si>
+  <si>
+    <t>babe</t>
+  </si>
+  <si>
+    <t>thu-dam</t>
+  </si>
+  <si>
+    <t>ebony;;58797249;sexy</t>
+  </si>
+  <si>
+    <t>asian</t>
+  </si>
+  <si>
+    <t>pussy</t>
+  </si>
+  <si>
+    <t>nepali</t>
+  </si>
+  <si>
+    <t>calle;;58797221;Unknown</t>
+  </si>
+  <si>
+    <t>sofia-mazza;;58797053;Unknown</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>big-ass</t>
+  </si>
+  <si>
+    <t>amateur</t>
+  </si>
+  <si>
+    <t>hoa5;;58796999;Unknown</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> suck cock and get her pussy banged doggy style;372 sec;https://cdn77-pic.xvideos-cdn.com/videos/thumbs169ll/b3/fe/7c/b3fe7c20b405eaf332c5e2f23a4b1435/b3fe7c20b405eaf332c5e2f23a4b1435.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58796961" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;teen</t>
+  </si>
+  <si>
+    <t>shaved-pussy</t>
+  </si>
+  <si>
+    <t>ebony</t>
+  </si>
+  <si>
+    <t>boobs</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>aryana-addin;;58795007;Unknown</t>
+  </si>
+  <si>
+    <t>desi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> she even blows the cameraman;981 sec;http://img-hw.xvideos-cdn.com/videos/thumbs169ll/5f/79/93/5f7993aabb026bf5610e53bbdeaca655/5f7993aabb026bf5610e53bbdeaca655.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58796707" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;porn</t>
+  </si>
+  <si>
+    <t>cumshot</t>
+  </si>
+  <si>
+    <t>amateur;;58797223;amateur</t>
+  </si>
+  <si>
+    <t>dildo</t>
+  </si>
+  <si>
+    <t>putea</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>casero;;58797087;Unknown</t>
+  </si>
+  <si>
+    <t>sister</t>
+  </si>
+  <si>
+    <t>mom</t>
+  </si>
+  <si>
+    <t>bbc;;58797141;bbw</t>
+  </si>
+  <si>
+    <t>vagina</t>
+  </si>
+  <si>
+    <t>unstoppable</t>
+  </si>
+  <si>
+    <t>gay</t>
+  </si>
+  <si>
+    <t>masturbation</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58797117/fucking_a_very_good_pussy_in_the_ghetto_of_jamaica;Fucking A Very Good Pussy In The Ghetto Of Jamaica;540 sec;http://img-hw.xvideos-cdn.com/videos/thumbs169ll/be/ab/bf/beabbf18a368559e552df4056639487e/beabbf18a368559e552df4056639487e.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58797117" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;anal</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58797369/twin_sisters_from_nigeria_with_the_biggest_boobs;Twin Sisters From Nigeria With The Biggest Boobs;162 sec;http://img-l3.xvideos-cdn.com/videos/thumbs169ll/ff/6c/15/ff6c155bb5076ab339d8cf455fed37a5/ff6c155bb5076ab339d8cf455fed37a5.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58797369" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;boobs</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58796727/big_tits_with_thicc_wet_pussy_on_cam;Big Tits With Thicc Wet Pussy On Cam;604 sec;http://img-hw.xvideos-cdn.com/videos/thumbs169ll/ed/f1/43/edf1433ec86ea93758a4b46e5bb89e8c/edf1433ec86ea93758a4b46e5bb89e8c.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58796727" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;babe</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58796941/the_tight_pussy_of_a_horny_girl;the tight pussy of a horny girl;482 sec;http://img-l3.xvideos-cdn.com/videos/thumbs169ll/d4/74/6b/d4746bce850c409cec176b9ca1ef2ecb/d4746bce850c409cec176b9ca1ef2ecb.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58796941" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;porn</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58797401/compilacion_animada;Compilacion animada;22 sec;http://img-l3.xvideos-cdn.com/videos/thumbs169ll/91/0f/86/910f86180b03bbeedf1824e8b770299b/910f86180b03bbeedf1824e8b770299b.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58797401" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;animado</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58797373/need_to_cum;Need to cum;56 sec;http://img-hw.xvideos-cdn.com/videos/thumbs169ll/aa/ec/09/aaec0915c80b6f6563cb926de573b9ae/aaec0915c80b6f6563cb926de573b9ae.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58797373" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;cock</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58797431/verification_video;Verification video;6 sec;http://img-l3.xvideos-cdn.com/videos/thumbs169ll/cd/84/66/cd846638b1792a9550fb1f8f3a1f7621/cd846638b1792a9550fb1f8f3a1f7621.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58797431" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;verification-video;;58797431;Unknown</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58797409/verification_video;Verification video;12 sec;http://img-l3.xvideos-cdn.com/videos/thumbs169ll/d4/4e/47/d44e474fc01f42323c3863b23fc76643/d44e474fc01f42323c3863b23fc76643.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58797409" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;verification-video;;58797409;Unknown</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58797417/verification_video;Verification video;19 sec;https://cdn77-pic.xvideos-cdn.com/videos/thumbs169ll/40/78/09/4078095028bd66b5f8570018d12d9956/4078095028bd66b5f8570018d12d9956.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58797417" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;verification-video;;58797417;Unknown</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58797411/wizzy9910_yubo_whore_exposed_2_everywhere;Wizzy9910 yubo whore exposed 2 everywhere;18 sec;http://img-hw.xvideos-cdn.com/videos/thumbs169ll/b2/0b/5b/b20b5b8f3a4980e311ae00b02de9b02d/b20b5b8f3a4980e311ae00b02de9b02d.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58797411" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;teen</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58797283/league_of_legends_akali_hardcore_fucking_big_ass_animated_hmv;LEAGUE OF LEGENDS AKALI HARDCORE FUCKING BIG ASS ANIMATED HMV;60 sec;http://img-l3.xvideos-cdn.com/videos/thumbs169ll/6f/25/eb/6f25eb1e4519ce8d4b5b380601ec43eb/6f25eb1e4519ce8d4b5b380601ec43eb.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58797283" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;anal</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58797335/_;Ð¿Ñ€Ð¾ÑÑ‚Ð¾ ÑÐµÐºÑ;42 sec;http://img-l3.xvideos-cdn.com/videos/thumbs169ll/b9/29/9f/b9299ffc170dbfbb757068ea1f37e658/b9299ffc170dbfbb757068ea1f37e658.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58797335" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;porn</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58796891/culito_de_huancayo_cogiendo_rico_28_de_julio;culito de  huancayo cogiendo rico 28 de julio;202 sec;https://cdn77-pic.xvideos-cdn.com/videos/thumbs169ll/25/8d/47/258d47d3bb1393a02761f50e528b44da/258d47d3bb1393a02761f50e528b44da.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58796891" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;culo</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58797291/whore_gives_rimjob_to_thug;Whore gives rimjob to thug;49 sec;http://img-l3.xvideos-cdn.com/videos/thumbs169ll/22/a9/59/22a959f4950bd8149a614600cd4cffbc/22a959f4950bd8149a614600cd4cffbc.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58797291" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;asslicking</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58797365/mi_amiga;mi amiga;29 sec;https://cdn77-pic.xvideos-cdn.com/videos/thumbs169ll/52/2c/ff/522cff4fe4b71f7395c7c88d690a9418/522cff4fe4b71f7395c7c88d690a9418.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58797365" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;argentina</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58797363/arigameplays_nuevamente_con_su_baile;Arigameplays nuevamente con su baile;37 sec;http://img-hw.xvideos-cdn.com/videos/thumbs169ll/a8/0b/34/a80b347b3ffd0179a0357bd4d06db5f3/a80b347b3ffd0179a0357bd4d06db5f3.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58797363" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;culona</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58797021/shackled_slave_gets_zippered;Shackled slave gets zippered;316 sec;http://img-hw.xvideos-cdn.com/videos/thumbs169ll/1c/50/b5/1c50b53e9a58a9caf506b861999e1535/1c50b53e9a58a9caf506b861999e1535.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58797021" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;fucking</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58797295/curvy_boy_sucking_dick;Curvy Boy Sucking Dick;67 sec;http://img-hw.xvideos-cdn.com/videos/thumbs169ll/b4/d0/a0/b4d0a016141c4cecd3f9b9f695cd679b/b4d0a016141c4cecd3f9b9f695cd679b.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58797295" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;blowjob</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58797323/3d_porn_game_tifa_sucked_hmv;3D Porn Game Tifa Sucked HMV;60 sec;https://cdn77-pic.xvideos-cdn.com/videos/thumbs169ll/e4/8d/eb/e48deb0592fe8da2aea969a9b5b283b5/e48deb0592fe8da2aea969a9b5b283b5.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58797323" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;babe</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58796995/tall_big_tit_eats_out_ebony_masseuses_amazing_pussy;Tall big tit eats out ebony masseuses amazing pussy;365 sec;http://img-l3.xvideos-cdn.com/videos/thumbs169ll/48/d9/cf/48d9cf8a02045f655005dd765a21baa5/48d9cf8a02045f655005dd765a21baa5.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58796995" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;lesbian</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58796931/bim_gia_mu_to_mup_vai_lol_-_it_te_chim;b&amp;iacute_m giáº£ mu to m&amp;uacute_p v&amp;atilde_i lol - Ä‘á»‹t t&amp;ecirc_ chim;300 sec;http://img-hw.xvideos-cdn.com/videos/thumbs169ll/e9/26/d8/e926d89e3919300f978ee0945738c27d/e926d89e3919300f978ee0945738c27d.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58796931" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;sextoy</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58797249/ebony_backstop;Ebony backstop;110 sec;http://img-l3.xvideos-cdn.com/videos/thumbs169ll/9b/f1/8c/9bf18c946669c9a04349f43af02c0edb/9bf18c946669c9a04349f43af02c0edb.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58797249" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;sexy</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58796751/japanese_femdom_cbt_hot_wax_play_on_cock;Japanese Femdom CBT Hot Wax Play on Cock;277 sec;http://img-hw.xvideos-cdn.com/videos/thumbs169ll/3a/88/b5/3a88b50aad37eae28bfe69a374db76ee/3a88b50aad37eae28bfe69a374db76ee.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58796751" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;lesbian</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58797063/huge_titty_camgirl_fuck_her_pussy_with_big_black_dildo_until_she_squirts;Huge titty camgirl fuck her pussy with big black dildo until she squirts;163 sec;http://img-l3.xvideos-cdn.com/videos/thumbs169ll/63/c8/0d/63c80dae866d4db6ebbdaa29b4799d25/63c80dae866d4db6ebbdaa29b4799d25.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58797063" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;dildo</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58797211/deshi_girlfriend;Deshi girlfriend;65 sec;http://img-hw.xvideos-cdn.com/videos/thumbs169ll/4b/e7/53/4be753fa5955f834b2e502516785ba38/4be753fa5955f834b2e502516785ba38.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58797211" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;jungle</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58797221/sensacional_de_prostis_no_46;Sensacional de Prostis No 46;220 sec;http://img-l3.xvideos-cdn.com/videos/thumbs169ll/5e/e6/f2/5ee6f2246f56b872bccc5f62849f7037/5ee6f2246f56b872bccc5f62849f7037.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58797221" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;prostituta</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58796773/cogiendo_de_perrito;Cogiendo de perrito;544 sec;http://img-hw.xvideos-cdn.com/videos/thumbs169ll/ff/d0/c6/ffd0c697a16405021db26619497c22e1/ffd0c697a16405021db26619497c22e1.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58796773" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;porno</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58797053/sofia_mazza;Sofia Mazza;487 sec;http://img-hw.xvideos-cdn.com/videos/thumbs169ll/82/60/3f/82603f46b181d115ebaf5a4ac9c0e5f0/82603f46b181d115ebaf5a4ac9c0e5f0.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58797053" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;loky-bambu</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58796807/keely_rose_pmv._omg_;Keely Rose PMV. OMG!;348 sec;http://img-l3.xvideos-cdn.com/videos/thumbs169ll/b4/fd/69/b4fd698a1a1f5055be59cd14da981ca2/b4fd698a1a1f5055be59cd14da981ca2.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58796807" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;sexy</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58797077/overwatch_mercy_fucking_big_dick_animated_2019;Overwatch Mercy Fucking Big Dick Animated 2019;60 sec;https://cdn77-pic.xvideos-cdn.com/videos/thumbs169ll/dc/1b/4f/dc1b4f3efa102f708e195fb6f72991ca/dc1b4f3efa102f708e195fb6f72991ca.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58797077" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;cumshot</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58797013/halo_-_cortana_sex_sucking_big_cock_hentai_2019;HALO - CORTANA SEX SUCKING BIG COCK HENTAI 2019;60 sec;http://img-l3.xvideos-cdn.com/videos/thumbs169ll/74/50/ba/7450bab58674d8bf9e0341f4c3a2a9b6/7450bab58674d8bf9e0341f4c3a2a9b6.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58797013" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;teen</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58797157/overwatch_-_ashe_porn_sucking_cock_anime_2019;Overwatch - Ashe Porn Sucking Cock Anime 2019;60 sec;http://img-l3.xvideos-cdn.com/videos/thumbs169ll/2f/cb/bc/2fcbbc8599a84a520093fb266d446c7a/2fcbbc8599a84a520093fb266d446c7a.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58797157" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;teen</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58797029/monica_bhabhi_wife_friend;Monica bhabhi wife friend;21 sec;http://img-l3.xvideos-cdn.com/videos/thumbs169ll/0b/9c/33/0b9c336bd037cbecb645fb377a664980/0b9c336bd037cbecb645fb377a664980.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58797029" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;naked</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58797035/widowmaker_x_mercy_lesbian_finger_fucked_new_video_game;WIDOWMAKER X MERCY LESBIAN FINGER FUCKED NEW VIDEO GAME;60 sec;http://img-l3.xvideos-cdn.com/videos/thumbs169ll/43/7d/b9/437db9ef41eed9aa175725f899a23e1a/437db9ef41eed9aa175725f899a23e1a.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58797035" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;pussy</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58797203/orcs_hardcore_fucked_cock_futa_new_porn_game;Orcs Hardcore Fucked Cock Futa NEW Porn Game;60 sec;https://cdn77-pic.xvideos-cdn.com/videos/thumbs169ll/a2/83/86/a28386fb6563637af4c8e55885f1ada9/a28386fb6563637af4c8e55885f1ada9.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58797203" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;hardcore</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58796983/overwatch_porn_hmv_-_pharah_hot_fucked_big_ass;OVERWATCH PORN HMV - PHARAH HOT FUCKED BIG ASS;60 sec;http://img-hw.xvideos-cdn.com/videos/thumbs169ll/e1/d3/9c/e1d39c329c0ca491c0f2fd029997e2fc/e1d39c329c0ca491c0f2fd029997e2fc.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58796983" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;anal</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58797059/youth_live_sex_cams_on_cruisingcams.com;Youth live sex cams on Cruisingcams.com;227 sec;http://img-hw.xvideos-cdn.com/videos/thumbs169ll/d6/01/dc/d601dcf045c3335c9fec88a106455a43/d601dcf045c3335c9fec88a106455a43.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58797059" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;teen</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58796999/tong_hop_video_anh_vo_chong_u_nhau_207_;Tá»•ng há»£p video áº£nh vá»£ chá»“ng Ä‘á»¥ nhau (207);281 sec;http://img-l3.xvideos-cdn.com/videos/thumbs169ll/4e/5b/f2/4e5bf26d2d777679e598fe12a49d3098/4e5bf26d2d777679e598fe12a49d3098.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58796999" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;ok</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58797075/red_dead_redemption_sex_sadie_hardcore_fucked_big_cock;RED DEAD REDEMPTION SEX SADIE HARDCORE FUCKED BIG COCK;60 sec;http://img-hw.xvideos-cdn.com/videos/thumbs169ll/b0/3b/fe/b03bfe38c5bfaab1d962b2f33a85b747/b03bfe38c5bfaab1d962b2f33a85b747.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58797075" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;porn</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58797009/sexy_hot_busty_asian_jade_kush_enjoy_huge_cock_in_her_juicy_tight_pussy_the_hard_way;Sexy hot busty asian Jade Kush enjoy huge cock in her juicy tight pussy the hard way;372 sec;http://img-l3.xvideos-cdn.com/videos/thumbs169ll/20/e6/b8/20e6b85f3ba9702e7397cce104dfbac1/20e6b85f3ba9702e7397cce104dfbac1.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58797009" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;pussy</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58796783/busty_petite_teen_asian_sucks_and_rides;Busty petite teen asian sucks and rides;480 sec;https://cdn77-pic.xvideos-cdn.com/videos/thumbs169ll/78/60/c2/7860c2ccf74a7410295b468cb4d8894e/7860c2ccf74a7410295b468cb4d8894e.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58796783" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;facial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.xvideos.com/video58796961/sexy_brunette_teen_harmony_wonder_lick_bals_suck_cock_and_get_her_pussy_banged_doggy_style;Sexy brunette teen Harmony Wonder lick bals </t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58796795/blonde_babe_wakes_up_bf_with_a_blowjob;Blonde babe wakes up bf with a blowjob;375 sec;http://img-l3.xvideos-cdn.com/videos/thumbs169ll/47/30/f4/4730f48af536d5cc7c63fad0e5cbc742/4730f48af536d5cc7c63fad0e5cbc742.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58796795" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;piercing</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58796927/sumbody_mama;Sumbody Mama;181 sec;http://img-hw.xvideos-cdn.com/videos/thumbs169ll/73/fb/37/73fb37ec83e07455a0adead8c1d7cf7b/73fb37ec83e07455a0adead8c1d7cf7b.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58796927" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;milf</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58796977/hot_nerdy_brunette_teen_harmony_wonder_get_her_juicy_pussy_pounded_hard_by_huge_cock_doggy_style;Hot nerdy brunette teen Harmony Wonder get her juicy pussy pounded hard by huge cock doggy style;372 sec;http://img-hw.xvideos-cdn.com/videos/thumbs169ll/69/64/a9/6964a980f16e4196bfa777cb20c9b89e/6964a980f16e4196bfa777cb20c9b89e.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58796977" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;teen</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58797033/sexy_big_tit_asian_hot_babe_jade_kush_enjoy_getting_her_juicy_pussy_drilled_by_huge_cock_from_behind;Sexy big tit asian hot babe Jade Kush enjoy getting her juicy pussy drilled by huge cock from behind;372 sec;http://img-hw.xvideos-cdn.com/videos/thumbs169ll/76/39/37/7639375fc4003a92949bba57e2f05981/7639375fc4003a92949bba57e2f05981.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58797033" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;hardcore</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58796875/public_anal_gangbang_of_busty_blond;Public anal gangbang of busty blond;317 sec;http://img-hw.xvideos-cdn.com/videos/thumbs169ll/1e/74/23/1e74234a9d30bd36a1588bd34748d48f/1e74234a9d30bd36a1588bd34748d48f.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58796875" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;anal</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58796899/ebony_slave_in_strappado_gets_banged;Ebony slave in strappado gets banged;316 sec;https://cdn77-pic.xvideos-cdn.com/videos/thumbs169ll/21/90/65/2190659a0632eaeb102f527bdf307db6/2190659a0632eaeb102f527bdf307db6.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58796899" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;fucking</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58796393/2;2;140 sec;http://img-hw.xvideos-cdn.com/videos/thumbs169ll/4c/3e/27/4c3e27c38705c869a27782a7291b2db2/4c3e27c38705c869a27782a7291b2db2.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58796393" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;hardcore</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58796295/lets_paint_episode_1;Lets Paint Episode 1;2077 sec;http://img-hw.xvideos-cdn.com/videos/thumbs169ll/ea/79/5d/ea795d9fa8f9b9696559fd8ca11914c3/ea795d9fa8f9b9696559fd8ca11914c3.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58796295" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;lesbian</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58796733/naughty_college_girls_posted_their_private_porn_videos_to_internet;Naughty  college girls posted their private porn videos to internet;613 sec;http://img-l3.xvideos-cdn.com/videos/thumbs169ll/15/87/66/158766697aef94229c13c0b1f53f4e01/158766697aef94229c13c0b1f53f4e01.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58796733" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;teen</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58795655/mloda_a_zarazem_bardzo_piekna_nastolatka_ssie_grubego_kutasa_ktory_nie_miesci_sie_jej_w_ustach;MÅ‚oda a zarazem bardzo piÄ™kna nastolatka ssie grubego kutasa kt&amp;oacute_ry nie mieÅ›ci siÄ™ jej w ustach;1732 sec;https://cdn77-pic.xvideos-cdn.com/videos/thumbs169ll/dc/99/f6/dc99f6dcf387aa5e25950f534796197f/dc99f6dcf387aa5e25950f534796197f.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58795655" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;anal</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58796703/sexy_young_teens_making_home_porn;Sexy young  Teens making Home Porn;633 sec;http://img-hw.xvideos-cdn.com/videos/thumbs169ll/11/76/35/117635a8e60ab23f37bb08f04a0e218f/117635a8e60ab23f37bb08f04a0e218f.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58796703" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;cumshot</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58796753/best_teen_sex_compilation;Best  Teen Sex Compilation;601 sec;https://cdn77-pic.xvideos-cdn.com/videos/thumbs169ll/6d/5a/a1/6d5aa150071a73d12d0c7eb6cca1fc85/6d5aa150071a73d12d0c7eb6cca1fc85.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58796753" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;teen</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58796709/gorgeous_and_canadian_teenagers._best_sex_moments;Gorgeous  and Canadian teenagers. Best sex moments;627 sec;https://cdn77-pic.xvideos-cdn.com/videos/thumbs169ll/fb/ea/e5/fbeae50beb999258a2af8df85ca66c8b/fbeae50beb999258a2af8df85ca66c8b.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58796709" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;teen</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58795007/las_diosas_culonas_de_chocolate_aryana_addin_y_lethal_lipps_le_dan_mucho_placer_a_un_negro_dotado;Las diosas culonas de chocolate Aryana Addin y Lethal Lipps le dan mucho placer a un negro dotado;2164 sec;https://cdn77-pic.xvideos-cdn.com/videos/thumbs169ll/47/df/8f/47df8f1cc929755c0d941587daec66c5/47df8f1cc929755c0d941587daec66c5.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58795007" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;lethal-lipps</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58795565/sliczna_i_seksowna_pokojowka_pieprzy_sie_z_przystojnym_biznesmenem_w_pokoju_hotelowym;Åšliczna i seksowna pokoj&amp;oacute_wka pieprzy siÄ™ z przystojnym biznesmenem w pokoju hotelowym;1218 sec;http://img-l3.xvideos-cdn.com/videos/thumbs169ll/21/7b/0e/217b0e697093363279abb4afb319c573/217b0e697093363279abb4afb319c573.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58795565" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;anal</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58796385/5;5;116 sec;http://img-hw.xvideos-cdn.com/videos/thumbs169ll/db/cd/66/dbcd66fa038d01c9e78b1f7297e5acd4/dbcd66fa038d01c9e78b1f7297e5acd4.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58796385" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;sex</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58796427/4;4;401 sec;http://img-l3.xvideos-cdn.com/videos/thumbs169ll/b4/e1/2b/b4e12b57182e5926e80d852339abdd63/b4e12b57182e5926e80d852339abdd63.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58796427" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;young</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58796707/while_fucking_outdoors_she_even_blows_the_cameraman;While fucking outdoors</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58797241/otra_que_me_manda_otro_pack_banandose_y_acariciando_su_cuerpo;Otra que me manda otro pack ba&amp;ntilde_&amp;aacute_ndose y acariciando su cuerpo;43 sec;http://img-hw.xvideos-cdn.com/videos/thumbs169ll/22/69/53/226953d5559426bf3a4548a0c2379f16/226953d5559426bf3a4548a0c2379f16.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58797241" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;teen</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58796833/cute_dude_jax_gets_bent_over_and_plowed_and_loves_every_inch;Cute dude Jax gets bent over and plowed and loves every inch;537 sec;http://img-hw.xvideos-cdn.com/videos/thumbs169ll/c7/c8/97/c7c897e80aee4f9b2cd41745f0af64a5/c7c897e80aee4f9b2cd41745f0af64a5.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58796833" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;anal</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58797223/hermosas_tetas;hermosas tetas;60 sec;http://img-l3.xvideos-cdn.com/videos/thumbs169ll/ef/d0/83/efd08347b395e0dea5018468896e72f7/efd08347b395e0dea5018468896e72f7.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58797223" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;tits</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58797191/college_boy_wank;College boy wank;28 sec;https://cdn77-pic.xvideos-cdn.com/videos/thumbs169ll/5b/23/db/5b23dbaeaf218c59992b170b1327803a/5b23dbaeaf218c59992b170b1327803a.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58797191" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;cumshot</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58797175/culo_abierto;Culo abierto;51 sec;http://img-l3.xvideos-cdn.com/videos/thumbs169ll/a8/c6/9d/a8c69d586359ceb6ed3a0c55b58fabcc/a8c69d586359ceb6ed3a0c55b58fabcc.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58797175" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;anal</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58796831/argentina_grita_hijo_de_puta_parte_16;Argentina grita hijo de puta Parte 16;576 sec;http://img-l3.xvideos-cdn.com/videos/thumbs169ll/0a/41/af/0a41af0c2390d9dedb25ceba9299d7a1/0a41af0c2390d9dedb25ceba9299d7a1.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58796831" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;argentinas</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58797137/my_wife_but_a_new_dildo;My wife  but a new dildo;165 sec;http://img-hw.xvideos-cdn.com/videos/thumbs169ll/c0/87/ad/c087ad60dbccd66b7b5f12aef8785b5b/c087ad60dbccd66b7b5f12aef8785b5b.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58797137" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;sex</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58796811/big_dick_max_payne_fucks_twink;Big dick Max Payne fucks twink;367 sec;http://img-l3.xvideos-cdn.com/videos/thumbs169ll/08/b0/39/08b039e47657a54a655afcf46bbad6a6/08b039e47657a54a655afcf46bbad6a6.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58796811" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;hot</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58797087/en_el_telo;En el telo;77 sec;http://img-l3.xvideos-cdn.com/videos/thumbs169ll/d9/8f/08/d98f08afe1bd05f94bb41abe99d30e28/d98f08afe1bd05f94bb41abe99d30e28.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58797087" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;hot</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58797219/black_cock_foot_massage;Black Cock Foot Massage;8 sec;https://cdn77-pic.xvideos-cdn.com/videos/thumbs169ll/94/f7/2d/94f72dc96662d0a456f12e26624392f9/94f72dc96662d0a456f12e26624392f9.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58797219" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;cumshot</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58796725/_;à¤¦à¥€à¤¦à¥€ à¤•à¥‹ à¤šà¥‹à¤¦à¤¾ à¤°à¤¾à¤¤ à¤®à¥‡à¤‚;912 sec;http://img-hw.xvideos-cdn.com/videos/thumbs169ll/0c/a8/e1/0ca8e16acec932a1248390575875614a/0ca8e16acec932a1248390575875614a.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58796725" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;indian</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58797129/bbc_working_angles;BBC working angles;65 sec;http://img-hw.xvideos-cdn.com/videos/thumbs169ll/5f/3d/0e/5f3d0ede38e5065c66ec9b17dc20fca1/5f3d0ede38e5065c66ec9b17dc20fca1.30.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58797129" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;ebony</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58797141/fuckin_a_bitch_with_mask_on_lol;Fuckin a bitch with mask  on lol;39 sec;http://img-hw.xvideos-cdn.com/videos/thumbs169ll/62/cb/56/62cb56ed97476fe869f836acd4baed72/62cb56ed97476fe869f836acd4baed72.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58797141" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;bbw</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58797145/putita_se_graba_para_mi;putita se graba para mi;85 sec;http://img-hw.xvideos-cdn.com/videos/thumbs169ll/13/36/fd/1336fddc06a5d4cda38fb97cfa670eea/1336fddc06a5d4cda38fb97cfa670eea.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58797145" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;masturbation</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58797131/blood_elf_the_best_fucking_big_dick_3d_cartoon;BLOOD ELF THE BEST FUCKING BIG DICK 3D CARTOON;60 sec;http://img-l3.xvideos-cdn.com/videos/thumbs169ll/01/5d/e0/015de03ccbe2a9d601f088f93cb37324/015de03ccbe2a9d601f088f93cb37324.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58797131" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;sex</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58796987/young_brunette_teenager_isabella_nice_suck_huge_cock_and_love_getting_her_juicy_pussy_banged_hard;Young brunette teenager Isabella Nice suck huge cock and love getting her juicy pussy banged hard;372 sec;http://img-l3.xvideos-cdn.com/videos/thumbs169ll/37/60/7d/37607dfeb54d5b7892932fb0797b1d3d/37607dfeb54d5b7892932fb0797b1d3d.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58796987" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;teen</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58796465/18videoz_-_a_perfect_fucking_solution_angel_dickens;18videoz - A perfect fucking solution Angel Dickens;625 sec;http://img-hw.xvideos-cdn.com/videos/thumbs169ll/d2/43/77/d24377f0f01e920aa652e04bd417b4b9/d24377f0f01e920aa652e04bd417b4b9.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58796465" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;cumshot</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58797119/otro_mas_de_mi_perrita_obediente;Otro m&amp;aacute_s de mi perrita obediente;15 sec;https://cdn77-pic.xvideos-cdn.com/videos/thumbs169ll/6b/5d/26/6b5d26b6f851b30e8bb6c798f5829c8c/6b5d26b6f851b30e8bb6c798f5829c8c.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58797119" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;teen</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58796885/imaginary_fighting;IMAGINARY FIGHTING;278 sec;http://img-l3.xvideos-cdn.com/videos/thumbs169ll/a6/c3/52/a6c352ed9bbee6c9ad2b0b532f8abf0c/a6c352ed9bbee6c9ad2b0b532f8abf0c.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58796885" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;selena</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/video58796731/eating_my_cum_meoffnow;Eating my cum meoffnow;270 sec;http://img-hw.xvideos-cdn.com/videos/thumbs169ll/40/56/db/4056dbdd0d1a23c532ab2ef45d1563fb/4056dbdd0d1a23c532ab2ef45d1563fb.15.jpg;&lt;iframe src="https://www.xvideos.com/embedframe/58796731" frameborder=0 width=510 height=400 scrolling=no allowfullscreen=allowfullscreen&gt;&lt;/iframe&gt;;solo</t>
+  </si>
+  <si>
+    <t>wet1</t>
+  </si>
+  <si>
+    <t>wet2</t>
+  </si>
+  <si>
+    <t>wet3</t>
   </si>
 </sst>
 </file>
@@ -473,16 +878,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8479B86-B1E0-F94D-9D76-E7CCECF6772A}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="58.625" customWidth="1"/>
-    <col min="3" max="3" width="75" customWidth="1"/>
+    <col min="3" max="3" width="255.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47.125" customWidth="1"/>
     <col min="5" max="5" width="40" customWidth="1"/>
   </cols>
@@ -566,8 +971,886 @@
         <v>22</v>
       </c>
     </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+    </row>
     <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
       <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>43</v>
+      </c>
+      <c r="B59" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>43</v>
+      </c>
+      <c r="B60" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>30</v>
+      </c>
+      <c r="B63" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>59</v>
+      </c>
+      <c r="B64" t="s">
+        <v>59</v>
+      </c>
+      <c r="C64" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65" t="s">
+        <v>60</v>
+      </c>
+      <c r="C65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>43</v>
+      </c>
+      <c r="B66" t="s">
+        <v>43</v>
+      </c>
+      <c r="C66" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>61</v>
+      </c>
+      <c r="B67" t="s">
+        <v>61</v>
+      </c>
+      <c r="C67" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>62</v>
+      </c>
+      <c r="B68" t="s">
+        <v>62</v>
+      </c>
+      <c r="C68" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>30</v>
+      </c>
+      <c r="B69" t="s">
+        <v>30</v>
+      </c>
+      <c r="C69" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>63</v>
+      </c>
+      <c r="B70" t="s">
+        <v>63</v>
+      </c>
+      <c r="C70" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>64</v>
+      </c>
+      <c r="B71" t="s">
+        <v>64</v>
+      </c>
+      <c r="C71" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>65</v>
+      </c>
+      <c r="B72" t="s">
+        <v>65</v>
+      </c>
+      <c r="C72" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>66</v>
+      </c>
+      <c r="B73" t="s">
+        <v>66</v>
+      </c>
+      <c r="C73" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>67</v>
+      </c>
+      <c r="B74" t="s">
+        <v>67</v>
+      </c>
+      <c r="C74" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>55</v>
+      </c>
+      <c r="B75" t="s">
+        <v>55</v>
+      </c>
+      <c r="C75" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>68</v>
+      </c>
+      <c r="B76" t="s">
+        <v>68</v>
+      </c>
+      <c r="C76" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>69</v>
+      </c>
+      <c r="B77" t="s">
+        <v>69</v>
+      </c>
+      <c r="C77" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>70</v>
+      </c>
+      <c r="B78" t="s">
+        <v>70</v>
+      </c>
+      <c r="C78" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>71</v>
+      </c>
+      <c r="B79" t="s">
+        <v>71</v>
+      </c>
+      <c r="C79" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>43</v>
+      </c>
+      <c r="B80" t="s">
+        <v>43</v>
+      </c>
+      <c r="C80" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>38</v>
+      </c>
+      <c r="B81" t="s">
+        <v>38</v>
+      </c>
+      <c r="C81" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>30</v>
+      </c>
+      <c r="B82" t="s">
+        <v>30</v>
+      </c>
+      <c r="C82" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>50</v>
+      </c>
+      <c r="B83" t="s">
+        <v>50</v>
+      </c>
+      <c r="C83" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>72</v>
+      </c>
+      <c r="B84" t="s">
+        <v>72</v>
+      </c>
+      <c r="C84" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>73</v>
+      </c>
+      <c r="B85" t="s">
+        <v>73</v>
+      </c>
+      <c r="C85" t="s">
+        <v>154</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
